--- a/Tecnometal/FT 2.18 инв.№55550199/ТО Tecnometal FT 2.18 на 2022 год.xlsx
+++ b/Tecnometal/FT 2.18 инв.№55550199/ТО Tecnometal FT 2.18 на 2022 год.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Операторы" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="53">
   <si>
     <t xml:space="preserve">ТО обрабатывающего центра с ЧПУ Tecnometal FT 2.18 инв.№55550199 для операторов</t>
   </si>
@@ -156,24 +156,10 @@
     <t xml:space="preserve">Средство для чистки от известковых отложений «АНТИ накипокс»</t>
   </si>
   <si>
-    <t xml:space="preserve">Техническое обслуживание 
-механизмов скольжения подвижных 
-перегородок</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Консистентная смазка CENTOPLEX H0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Проверка уровня антифриза</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Антифриз</t>
-  </si>
-  <si>
     <t xml:space="preserve">Чистка резервуара для вакуумного насоса</t>
   </si>
   <si>
-    <t xml:space="preserve">Замена фильтра удаления масла</t>
+    <t xml:space="preserve">Чистка либо замена масляного фильтра</t>
   </si>
   <si>
     <t xml:space="preserve">1 раз в 4 месяца</t>
@@ -188,26 +174,6 @@
     <t xml:space="preserve">1 раз в 6 месяцев</t>
   </si>
   <si>
-    <t xml:space="preserve">Очистка или замена воздушного 
-фильтра системы наддува электрошпинделя</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 раз в 9 месяцев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вода, мыло, сжатый воздух</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Полная замена жидкости охлаждения электрошпинделя</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 раз в 2 года</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Антифриз (незамерзающая жидкость должна представлять собой смесь из 90% воды (не 
-дистиллированной) и макс. 10 % гликоля)</t>
-  </si>
-  <si>
     <t xml:space="preserve">v — необходимо провести обслуживание</t>
   </si>
   <si>
@@ -230,14 +196,6 @@
   </si>
   <si>
     <t xml:space="preserve">Чистка направляющих и ходовых винтов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Техническое обслуживание 
-механизмов скольжения подвижных перегородок</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чистка или замена воздушного 
-фильтра системы наддува электрошпинделя</t>
   </si>
   <si>
     <t xml:space="preserve">Обслуживающий персонал</t>
@@ -358,7 +316,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -421,10 +379,6 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -546,9 +500,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2461680</xdr:colOff>
+      <xdr:colOff>2461320</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>5073840</xdr:rowOff>
+      <xdr:rowOff>5073480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -562,7 +516,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8973360" y="2124000"/>
-          <a:ext cx="2330640" cy="5073840"/>
+          <a:ext cx="2330280" cy="5073480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -579,13 +533,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2635920</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1379880</xdr:rowOff>
+      <xdr:rowOff>1380600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4979160</xdr:colOff>
+      <xdr:colOff>4978800</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>5070240</xdr:rowOff>
+      <xdr:rowOff>5070600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -598,8 +552,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="16207800">
-          <a:off x="10112760" y="3485520"/>
-          <a:ext cx="5073840" cy="2343240"/>
+          <a:off x="10112760" y="3485880"/>
+          <a:ext cx="5073480" cy="2342880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -620,9 +574,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5073840</xdr:colOff>
+      <xdr:colOff>5073480</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2343240</xdr:rowOff>
+      <xdr:rowOff>2342880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -636,7 +590,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8842320" y="7203600"/>
-          <a:ext cx="5073840" cy="2343240"/>
+          <a:ext cx="5073480" cy="2342880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -657,9 +611,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5073840</xdr:colOff>
+      <xdr:colOff>5073480</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>2330640</xdr:rowOff>
+      <xdr:rowOff>2330280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -673,7 +627,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8842320" y="9635400"/>
-          <a:ext cx="5073840" cy="2330640"/>
+          <a:ext cx="5073480" cy="2330280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -689,18 +643,18 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5073840</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>2343240</xdr:rowOff>
+      <xdr:colOff>2346480</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>5077080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Изображение 8" descr=""/>
+        <xdr:cNvPr id="4" name="Изображение 21" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -709,8 +663,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8842320" y="14504040"/>
-          <a:ext cx="5073840" cy="2343240"/>
+          <a:off x="8842320" y="29553480"/>
+          <a:ext cx="2346480" cy="5077080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -725,19 +679,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>2583000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>25200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5073840</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>2343240</xdr:rowOff>
+      <xdr:colOff>4929480</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>5102280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Изображение 14" descr=""/>
+        <xdr:cNvPr id="5" name="Изображение 22" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -746,8 +700,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8842320" y="16894080"/>
-          <a:ext cx="5073840" cy="2343240"/>
+          <a:off x="11425320" y="29578680"/>
+          <a:ext cx="2346480" cy="5077080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -762,19 +716,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>34560</xdr:rowOff>
+      <xdr:colOff>1339200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>43920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5076360</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>2380320</xdr:rowOff>
+      <xdr:colOff>3688200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>5123520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Изображение 2" descr=""/>
+        <xdr:cNvPr id="6" name="Изображение 14" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -783,8 +737,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8842320" y="12092040"/>
-          <a:ext cx="5076360" cy="2345760"/>
+          <a:off x="10181520" y="24392520"/>
+          <a:ext cx="2349000" cy="5079600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -800,18 +754,18 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2346840</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>5077440</xdr:rowOff>
+      <xdr:colOff>5079600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2349000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Изображение 21" descr=""/>
+        <xdr:cNvPr id="7" name="Изображение 2" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -820,8 +774,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8842320" y="19284480"/>
-          <a:ext cx="2346840" cy="5077440"/>
+          <a:off x="8842320" y="12057480"/>
+          <a:ext cx="5079600" cy="2349000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -836,19 +790,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2583000</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:colOff>1095840</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2357640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4929840</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>5102640</xdr:rowOff>
+      <xdr:colOff>3444840</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7437240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Изображение 22" descr=""/>
+        <xdr:cNvPr id="8" name="Изображение 24" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -857,8 +811,82 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11425320" y="19309680"/>
-          <a:ext cx="2346840" cy="5077440"/>
+          <a:off x="9938160" y="14415120"/>
+          <a:ext cx="2349000" cy="5079600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5079600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2349000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Изображение 8" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8842320" y="19551600"/>
+          <a:ext cx="5079600" cy="2349000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2385720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5079600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>4734720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Изображение 25" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8842320" y="21937320"/>
+          <a:ext cx="5079600" cy="2349000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -878,19 +906,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>47520</xdr:rowOff>
+      <xdr:colOff>1317240</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>73440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5073840</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>2504880</xdr:rowOff>
+      <xdr:colOff>3660120</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>29520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Изображение 9" descr=""/>
+        <xdr:cNvPr id="11" name="Изображение 10" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -899,8 +927,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7881480" y="9199080"/>
-          <a:ext cx="5073840" cy="2457360"/>
+          <a:off x="9198720" y="17099640"/>
+          <a:ext cx="2342880" cy="5073480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -915,19 +943,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1317240</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>73440</xdr:rowOff>
+      <xdr:colOff>10800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>90000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3660480</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>29880</xdr:rowOff>
+      <xdr:colOff>5085720</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2437200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Изображение 10" descr=""/>
+        <xdr:cNvPr id="12" name="Изображение 23" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -936,8 +964,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9198720" y="11809440"/>
-          <a:ext cx="2343240" cy="5073840"/>
+          <a:off x="7892280" y="11994840"/>
+          <a:ext cx="5074920" cy="2347200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -952,19 +980,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>47520</xdr:rowOff>
+      <xdr:colOff>1275480</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5073840</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:colOff>3624480</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>5114520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Изображение 11" descr=""/>
+        <xdr:cNvPr id="13" name="Изображение 7" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -973,8 +1001,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7881480" y="21778560"/>
-          <a:ext cx="5073840" cy="2343240"/>
+          <a:off x="9156960" y="1480680"/>
+          <a:ext cx="2349000" cy="5079600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -989,19 +1017,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>47520</xdr:rowOff>
+      <xdr:colOff>1203840</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>52200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5073840</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>2390760</xdr:rowOff>
+      <xdr:colOff>3552840</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>5131800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Изображение 15" descr=""/>
+        <xdr:cNvPr id="14" name="Изображение 20" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1010,8 +1038,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7881480" y="30371400"/>
-          <a:ext cx="5073840" cy="2343240"/>
+          <a:off x="9085320" y="6719040"/>
+          <a:ext cx="2349000" cy="5079600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1027,18 +1055,18 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>47880</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5073840</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>32400</xdr:rowOff>
+      <xdr:colOff>5079600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2349000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Изображение 16" descr=""/>
+        <xdr:cNvPr id="15" name="Изображение 9" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1047,8 +1075,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7881480" y="32814360"/>
-          <a:ext cx="5073840" cy="2343240"/>
+          <a:off x="7881480" y="14441760"/>
+          <a:ext cx="5079600" cy="2349000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1063,19 +1091,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>47880</xdr:rowOff>
+      <xdr:colOff>1329480</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5073840</xdr:colOff>
+      <xdr:colOff>3678480</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>11520</xdr:rowOff>
+      <xdr:rowOff>5166360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Изображение 18" descr=""/>
+        <xdr:cNvPr id="16" name="Изображение 6" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1084,8 +1112,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7881480" y="16901280"/>
-          <a:ext cx="5073840" cy="2343240"/>
+          <a:off x="9210960" y="27279360"/>
+          <a:ext cx="2349000" cy="5079600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1101,18 +1129,18 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>47520</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5073840</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>21600</xdr:rowOff>
+      <xdr:colOff>5079600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2349000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Изображение 19" descr=""/>
+        <xdr:cNvPr id="17" name="Изображение 11" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1121,8 +1149,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7881480" y="35172720"/>
-          <a:ext cx="5073840" cy="2343240"/>
+          <a:off x="7881480" y="34963560"/>
+          <a:ext cx="5079600" cy="2349000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1136,20 +1164,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>7560</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>120960</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1746720</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5081040</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>2464200</xdr:rowOff>
+      <xdr:colOff>5061960</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2383920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Изображение 7" descr=""/>
+        <xdr:cNvPr id="18" name="Изображение 12" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1158,8 +1186,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7889040" y="1566720"/>
-          <a:ext cx="5073480" cy="2343240"/>
+          <a:off x="7863840" y="37441440"/>
+          <a:ext cx="5079600" cy="2349000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1173,20 +1201,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>5400</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>64800</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1746360</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>69480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5081760</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>2410560</xdr:rowOff>
+      <xdr:colOff>5061600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2418480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Изображение 6" descr=""/>
+        <xdr:cNvPr id="19" name="Изображение 13" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1195,8 +1223,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7886880" y="19297800"/>
-          <a:ext cx="5076360" cy="2345760"/>
+          <a:off x="7863480" y="22213080"/>
+          <a:ext cx="5079600" cy="2349000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1210,20 +1238,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>47520</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1746720</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2547360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5076360</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>2393280</xdr:rowOff>
+      <xdr:colOff>5061960</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>4896360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Изображение 13" descr=""/>
+        <xdr:cNvPr id="20" name="Изображение 15" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1232,156 +1260,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7881480" y="27907560"/>
-          <a:ext cx="5076360" cy="2345760"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1311840</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>65160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3619800</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>3668400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Изображение 12" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9193320" y="24186240"/>
-          <a:ext cx="2307960" cy="3603240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1383480</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3691440</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>3789360</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Изображение 17" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9264960" y="37680480"/>
-          <a:ext cx="2307960" cy="3603240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>23760</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>61920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>5097600</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>2405160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Изображение 20" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7905240" y="4092120"/>
-          <a:ext cx="5073840" cy="2343240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>10800</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>90000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>5086080</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>2437560</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Изображение 23" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId14"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7892280" y="6704640"/>
-          <a:ext cx="5075280" cy="2347560"/>
+          <a:off x="7863840" y="24690960"/>
+          <a:ext cx="5079600" cy="2349000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1403,8 +1283,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="100" zoomScalePageLayoutView="65" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="29.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1488,7 +1368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="192.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="590.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
         <f aca="false">A6+1</f>
         <v>4</v>
@@ -1504,7 +1384,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="188.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="377.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
         <f aca="false">A7+1</f>
         <v>5</v>
@@ -1520,7 +1400,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="188.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="409.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
         <f aca="false">A8+1</f>
         <v>6</v>
@@ -1588,8 +1468,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="100" zoomScalePageLayoutView="65" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="29.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1628,7 +1508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="true" ht="203.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" s="1" customFormat="true" ht="411.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="n">
         <v>1</v>
       </c>
@@ -1643,7 +1523,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="true" ht="203.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" s="1" customFormat="true" ht="412.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
         <f aca="false">A4+1</f>
         <v>2</v>
@@ -1677,8 +1557,8 @@
     </row>
     <row r="7" customFormat="false" ht="203.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
-        <f aca="false">A5+1</f>
-        <v>3</v>
+        <f aca="false">A6+1</f>
+        <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>29</v>
@@ -1692,9 +1572,9 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="402.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="n">
+      <c r="A8" s="5" t="n">
         <f aca="false">A7+1</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>32</v>
@@ -1707,10 +1587,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="187.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="n">
+    <row r="9" customFormat="false" ht="397.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="n">
         <f aca="false">A8+1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>34</v>
@@ -1723,10 +1603,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="196.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="n">
+    <row r="10" customFormat="false" ht="417.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="n">
         <f aca="false">A9+1</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>36</v>
@@ -1739,12 +1619,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="188.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="n">
+    <row r="11" customFormat="false" ht="194" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="n">
         <f aca="false">A10+1</f>
-        <v>7</v>
-      </c>
-      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -1752,109 +1632,49 @@
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="192.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="n">
+        <f aca="false">A11+1</f>
+        <v>9</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="294.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="n">
-        <f aca="false">A11+1</f>
-        <v>8</v>
-      </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="194" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="n">
+    <row r="13" customFormat="false" ht="200.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="n">
         <f aca="false">A12+1</f>
-        <v>9</v>
-      </c>
-      <c r="B13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="192.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="n">
-        <f aca="false">A13+1</f>
-        <v>10</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="185.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="n">
-        <f aca="false">A14+1</f>
-        <v>11</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="186.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="n">
-        <f aca="false">A15+1</f>
-        <v>12</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="303.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="n">
-        <f aca="false">A16+1</f>
-        <v>13</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="17"/>
-      <c r="C41" s="13"/>
-    </row>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="16"/>
+      <c r="C37" s="13"/>
+    </row>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
@@ -1878,8 +1698,8 @@
   </sheetPr>
   <dimension ref="A1:AG14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="55" zoomScalePageLayoutView="65" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="29.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1892,45 +1712,45 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="18"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
     </row>
     <row r="2" customFormat="false" ht="53.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1940,39 +1760,39 @@
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
+      <c r="C3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
     </row>
     <row r="4" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4"/>
@@ -1980,79 +1800,79 @@
       <c r="C4" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="20" t="n">
+      <c r="D4" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="E4" s="21" t="n">
+      <c r="E4" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="F4" s="21" t="n">
+      <c r="F4" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="G4" s="20" t="n">
+      <c r="G4" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="H4" s="20" t="n">
+      <c r="H4" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="I4" s="20" t="n">
+      <c r="I4" s="19" t="n">
         <v>7</v>
       </c>
-      <c r="J4" s="20" t="n">
+      <c r="J4" s="19" t="n">
         <v>8</v>
       </c>
-      <c r="K4" s="20" t="n">
+      <c r="K4" s="19" t="n">
         <v>9</v>
       </c>
-      <c r="L4" s="21" t="n">
+      <c r="L4" s="20" t="n">
         <v>10</v>
       </c>
-      <c r="M4" s="21" t="n">
+      <c r="M4" s="20" t="n">
         <v>11</v>
       </c>
-      <c r="N4" s="20" t="n">
+      <c r="N4" s="19" t="n">
         <v>12</v>
       </c>
-      <c r="O4" s="20" t="n">
+      <c r="O4" s="19" t="n">
         <v>13</v>
       </c>
-      <c r="P4" s="20" t="n">
+      <c r="P4" s="19" t="n">
         <v>14</v>
       </c>
-      <c r="Q4" s="20" t="n">
+      <c r="Q4" s="19" t="n">
         <v>15</v>
       </c>
-      <c r="R4" s="20" t="n">
+      <c r="R4" s="19" t="n">
         <v>16</v>
       </c>
-      <c r="S4" s="21" t="n">
+      <c r="S4" s="20" t="n">
         <v>17</v>
       </c>
-      <c r="T4" s="21" t="n">
+      <c r="T4" s="20" t="n">
         <v>18</v>
       </c>
-      <c r="U4" s="20" t="n">
+      <c r="U4" s="19" t="n">
         <v>19</v>
       </c>
-      <c r="V4" s="20" t="n">
+      <c r="V4" s="19" t="n">
         <v>20</v>
       </c>
-      <c r="W4" s="20" t="n">
+      <c r="W4" s="19" t="n">
         <v>21</v>
       </c>
-      <c r="X4" s="20" t="n">
+      <c r="X4" s="19" t="n">
         <v>22</v>
       </c>
-      <c r="Y4" s="20" t="n">
+      <c r="Y4" s="19" t="n">
         <v>23</v>
       </c>
-      <c r="Z4" s="21" t="n">
+      <c r="Z4" s="20" t="n">
         <v>24</v>
       </c>
-      <c r="AA4" s="21" t="n">
+      <c r="AA4" s="20" t="n">
         <v>25</v>
       </c>
-      <c r="AB4" s="20" t="n">
+      <c r="AB4" s="19" t="n">
         <v>26</v>
       </c>
       <c r="AC4" s="5" t="n">
@@ -2067,7 +1887,7 @@
       <c r="AF4" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="AG4" s="22" t="n">
+      <c r="AG4" s="21" t="n">
         <v>31</v>
       </c>
     </row>
@@ -2079,80 +1899,80 @@
         <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
+        <v>46</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
       <c r="G5" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
+        <v>46</v>
+      </c>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
       <c r="N5" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
+        <v>46</v>
+      </c>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
       <c r="U5" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
+        <v>46</v>
+      </c>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
       <c r="AB5" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AC5" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AD5" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AE5" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AF5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG5" s="23"/>
+        <v>46</v>
+      </c>
+      <c r="AG5" s="22"/>
     </row>
     <row r="6" customFormat="false" ht="80.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
@@ -2163,80 +1983,80 @@
         <v>9</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
+        <v>46</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
+        <v>46</v>
+      </c>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
       <c r="N6" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
+        <v>46</v>
+      </c>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
       <c r="U6" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
+        <v>46</v>
+      </c>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
       <c r="AB6" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AD6" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AE6" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AF6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG6" s="23"/>
+        <v>46</v>
+      </c>
+      <c r="AG6" s="22"/>
     </row>
     <row r="7" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
@@ -2247,80 +2067,80 @@
         <v>11</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
+        <v>46</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
+        <v>46</v>
+      </c>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
       <c r="N7" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
+        <v>46</v>
+      </c>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
       <c r="U7" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="22"/>
+        <v>46</v>
+      </c>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
       <c r="AB7" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AC7" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AD7" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AE7" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AF7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG7" s="23"/>
+        <v>46</v>
+      </c>
+      <c r="AG7" s="22"/>
     </row>
     <row r="8" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
@@ -2332,45 +2152,45 @@
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
       <c r="N8" s="5"/>
-      <c r="O8" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="P8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
       <c r="U8" s="5"/>
-      <c r="V8" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="W8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
       <c r="AB8" s="5"/>
-      <c r="AC8" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
-      <c r="AG8" s="23"/>
-    </row>
-    <row r="9" customFormat="false" ht="53.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AG8" s="22"/>
+    </row>
+    <row r="9" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
         <f aca="false">A8+1</f>
         <v>5</v>
@@ -2380,45 +2200,45 @@
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
       <c r="N9" s="5"/>
-      <c r="O9" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="P9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
       <c r="U9" s="5"/>
-      <c r="V9" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="W9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="22"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
       <c r="AB9" s="5"/>
-      <c r="AC9" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
-      <c r="AG9" s="23"/>
-    </row>
-    <row r="10" customFormat="false" ht="53.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AG9" s="22"/>
+    </row>
+    <row r="10" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="n">
         <f aca="false">A9+1</f>
         <v>6</v>
@@ -2428,43 +2248,43 @@
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
       <c r="N10" s="5"/>
-      <c r="O10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="P10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
       <c r="U10" s="5"/>
-      <c r="V10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="W10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
       <c r="AB10" s="5"/>
-      <c r="AC10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
-      <c r="AG10" s="23"/>
+      <c r="AG10" s="22"/>
     </row>
     <row r="11" customFormat="false" ht="53.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
@@ -2476,154 +2296,154 @@
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
+        <v>46</v>
+      </c>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
+        <v>46</v>
+      </c>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="22"/>
+        <v>46</v>
+      </c>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
       <c r="AF11" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG11" s="23"/>
+        <v>46</v>
+      </c>
+      <c r="AG11" s="22"/>
     </row>
     <row r="12" customFormat="false" ht="170.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="22"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
-      <c r="AG12" s="23"/>
+      <c r="AG12" s="22"/>
     </row>
     <row r="13" customFormat="false" ht="170.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
-      <c r="Z13" s="22"/>
-      <c r="AA13" s="22"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
-      <c r="AG13" s="23"/>
+      <c r="AG13" s="22"/>
     </row>
     <row r="14" customFormat="false" ht="170.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
-      <c r="Z14" s="22"/>
-      <c r="AA14" s="22"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
-      <c r="AG14" s="23"/>
+      <c r="AG14" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2650,9 +2470,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:AG48"/>
+  <dimension ref="A1:AG1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="55" zoomScalePageLayoutView="65" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
       <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -2666,45 +2486,45 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="18"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
     </row>
     <row r="2" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2714,39 +2534,39 @@
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
+      <c r="C3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
     </row>
     <row r="4" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4"/>
@@ -2754,79 +2574,79 @@
       <c r="C4" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="20" t="n">
+      <c r="D4" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="E4" s="21" t="n">
+      <c r="E4" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="F4" s="21" t="n">
+      <c r="F4" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="G4" s="20" t="n">
+      <c r="G4" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="H4" s="20" t="n">
+      <c r="H4" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="I4" s="20" t="n">
+      <c r="I4" s="19" t="n">
         <v>7</v>
       </c>
-      <c r="J4" s="20" t="n">
+      <c r="J4" s="19" t="n">
         <v>8</v>
       </c>
-      <c r="K4" s="20" t="n">
+      <c r="K4" s="19" t="n">
         <v>9</v>
       </c>
-      <c r="L4" s="21" t="n">
+      <c r="L4" s="20" t="n">
         <v>10</v>
       </c>
-      <c r="M4" s="21" t="n">
+      <c r="M4" s="20" t="n">
         <v>11</v>
       </c>
-      <c r="N4" s="20" t="n">
+      <c r="N4" s="19" t="n">
         <v>12</v>
       </c>
-      <c r="O4" s="20" t="n">
+      <c r="O4" s="19" t="n">
         <v>13</v>
       </c>
-      <c r="P4" s="20" t="n">
+      <c r="P4" s="19" t="n">
         <v>14</v>
       </c>
-      <c r="Q4" s="20" t="n">
+      <c r="Q4" s="19" t="n">
         <v>15</v>
       </c>
-      <c r="R4" s="20" t="n">
+      <c r="R4" s="19" t="n">
         <v>16</v>
       </c>
-      <c r="S4" s="21" t="n">
+      <c r="S4" s="20" t="n">
         <v>17</v>
       </c>
-      <c r="T4" s="21" t="n">
+      <c r="T4" s="20" t="n">
         <v>18</v>
       </c>
-      <c r="U4" s="20" t="n">
+      <c r="U4" s="19" t="n">
         <v>19</v>
       </c>
-      <c r="V4" s="20" t="n">
+      <c r="V4" s="19" t="n">
         <v>20</v>
       </c>
-      <c r="W4" s="20" t="n">
+      <c r="W4" s="19" t="n">
         <v>21</v>
       </c>
-      <c r="X4" s="20" t="n">
+      <c r="X4" s="19" t="n">
         <v>22</v>
       </c>
-      <c r="Y4" s="20" t="n">
+      <c r="Y4" s="19" t="n">
         <v>23</v>
       </c>
-      <c r="Z4" s="21" t="n">
+      <c r="Z4" s="20" t="n">
         <v>24</v>
       </c>
-      <c r="AA4" s="21" t="n">
+      <c r="AA4" s="20" t="n">
         <v>25</v>
       </c>
-      <c r="AB4" s="20" t="n">
+      <c r="AB4" s="19" t="n">
         <v>26</v>
       </c>
       <c r="AC4" s="5" t="n">
@@ -2841,56 +2661,48 @@
       <c r="AF4" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="AG4" s="22" t="n">
+      <c r="AG4" s="21" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="5"/>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
-      <c r="AG5" s="23"/>
+      <c r="AG5" s="22"/>
     </row>
     <row r="6" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
@@ -2901,44 +2713,36 @@
         <v>25</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="5"/>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
-      <c r="AG6" s="23"/>
+      <c r="AG6" s="22"/>
     </row>
     <row r="7" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
@@ -2950,45 +2754,35 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="5"/>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
-      <c r="AD7" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
-      <c r="AG7" s="23"/>
+      <c r="AG7" s="22"/>
     </row>
     <row r="8" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
@@ -3000,37 +2794,35 @@
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
-      <c r="AG8" s="22"/>
+      <c r="AG8" s="21"/>
     </row>
     <row r="9" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
@@ -3042,79 +2834,75 @@
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
-      <c r="AG9" s="22"/>
-    </row>
-    <row r="10" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AG9" s="21"/>
+    </row>
+    <row r="10" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="n">
         <f aca="false">A9+1</f>
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
-      <c r="AG10" s="22"/>
+      <c r="AG10" s="21"/>
     </row>
     <row r="11" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
@@ -3126,121 +2914,115 @@
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
-      <c r="AG11" s="22"/>
-    </row>
-    <row r="12" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AG11" s="21"/>
+    </row>
+    <row r="12" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="n">
         <f aca="false">A11+1</f>
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="22"/>
-      <c r="AB12" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
-      <c r="AG12" s="22"/>
-    </row>
-    <row r="13" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AG12" s="21"/>
+    </row>
+    <row r="13" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="n">
         <f aca="false">A12+1</f>
         <v>9</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>40</v>
+      <c r="B13" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
-      <c r="Z13" s="22"/>
-      <c r="AA13" s="22"/>
-      <c r="AB13" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
-      <c r="AG13" s="22"/>
+      <c r="AG13" s="21"/>
     </row>
     <row r="14" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="n">
@@ -3252,260 +3034,94 @@
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
-      <c r="Z14" s="22"/>
-      <c r="AA14" s="22"/>
-      <c r="AB14" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
-      <c r="AG14" s="22"/>
-    </row>
-    <row r="15" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="n">
-        <f aca="false">A14+1</f>
-        <v>11</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="AG14" s="21"/>
+    </row>
+    <row r="15" customFormat="false" ht="170.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
-      <c r="Z15" s="22"/>
-      <c r="AA15" s="22"/>
-      <c r="AB15" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
-      <c r="AG15" s="22"/>
-    </row>
-    <row r="16" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="n">
-        <f aca="false">A15+1</f>
-        <v>12</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="22"/>
-      <c r="AA16" s="22"/>
-      <c r="AB16" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="5"/>
-      <c r="AF16" s="5"/>
-      <c r="AG16" s="22"/>
-    </row>
-    <row r="17" customFormat="false" ht="107.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="n">
-        <f aca="false">A16+1</f>
-        <v>13</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="22"/>
-      <c r="AA17" s="22"/>
-      <c r="AB17" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="5"/>
-      <c r="AF17" s="5"/>
-      <c r="AG17" s="22"/>
-    </row>
-    <row r="18" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="n">
-        <f aca="false">A17+1</f>
-        <v>14</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="22"/>
-      <c r="AA18" s="22"/>
-      <c r="AB18" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="5"/>
-      <c r="AF18" s="5"/>
-      <c r="AG18" s="22"/>
-    </row>
-    <row r="19" customFormat="false" ht="170.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="22"/>
-      <c r="AA19" s="22"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="5"/>
-      <c r="AF19" s="5"/>
-      <c r="AG19" s="22"/>
-    </row>
-    <row r="20" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="25"/>
-    </row>
-    <row r="48" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="11"/>
-      <c r="C48" s="2"/>
-    </row>
+      <c r="AG15" s="21"/>
+    </row>
+    <row r="16" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="24"/>
+    </row>
+    <row r="44" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="11"/>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:AG3"/>
-    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.461805555555556" bottom="0.461805555555556" header="0.196527777777778" footer="0.196527777777778"/>
